--- a/public/assets/theme/import_category.xlsx
+++ b/public/assets/theme/import_category.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>slug</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Tên danh mục</t>
   </si>
@@ -402,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,7 +407,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,13 +420,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -440,59 +434,47 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
